--- a/bin/Debug/netcoreapp3.1/RT962-DRW.xlsx
+++ b/bin/Debug/netcoreapp3.1/RT962-DRW.xlsx
@@ -92,7 +92,7 @@
     <t>Final Test Date</t>
   </si>
   <si>
-    <t>2023-05-31 10:14:46</t>
+    <t>2023-11-28 11:26:42</t>
   </si>
   <si>
     <t>Test Program</t>
@@ -137,7 +137,7 @@
     <t>Paired Accessories</t>
   </si>
   <si>
-    <t>SM2-M</t>
+    <t>Unknown</t>
   </si>
 </sst>
 </file>
